--- a/temp/pages/ValueSet-NivelFederacaoValueSet.xlsx
+++ b/temp/pages/ValueSet-NivelFederacaoValueSet.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehrruner.com/fhir/StructureDefinition/ValueSet/NivelFederacao</t>
+    <t>http://br-ipes.com/fhir/ValueSet/NivelFederacaoValueSet</t>
   </si>
   <si>
     <t>Version</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://ehrruner.com/fhir/StructureDefinition/CodeSystem/NivelFederacao</t>
+    <t>http://br-ipes.com/fhir/StructureDefinition/CodeSystem/NivelFederacao</t>
   </si>
 </sst>
 </file>
